--- a/Transformacion 2).xlsx
+++ b/Transformacion 2).xlsx
@@ -13,12 +13,11 @@
     <sheet name="Valores" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="85">
   <si>
     <t>Si</t>
   </si>
@@ -264,6 +263,15 @@
   </si>
   <si>
     <t>ejecutamos sp's del modulo de segurida extrayendolos directamente de la bd jausi del proyecto contabilidad</t>
+  </si>
+  <si>
+    <t>ejecutamos el sp estado select</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Actualizamos el SP EstadoSelect</t>
   </si>
 </sst>
 </file>
@@ -842,7 +850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1199,7 +1207,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,7 +1276,7 @@
         <v>52</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>52</v>
@@ -1281,6 +1289,9 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>50</v>
       </c>
@@ -1303,7 +1314,10 @@
         <v>50</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2025,10 +2039,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B25"/>
+  <dimension ref="B2:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2149,6 +2163,11 @@
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Transformacion 2).xlsx
+++ b/Transformacion 2).xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Creacion BD2008" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="3" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="4" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="4" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
     <sheet name="Valores" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="91">
   <si>
     <t>Si</t>
   </si>
@@ -193,9 +193,6 @@
     <t>Delete</t>
   </si>
   <si>
-    <t>Controlador: Solo comentamos un paso de EstadoList por el ViewBag pero no lo necesitaba; SP Acomodamos en un solo Archivo</t>
-  </si>
-  <si>
     <t>pasamos 2 registros a la tabla Estado</t>
   </si>
   <si>
@@ -272,13 +269,34 @@
   </si>
   <si>
     <t>Actualizamos el SP EstadoSelect</t>
+  </si>
+  <si>
+    <t>Periodo</t>
+  </si>
+  <si>
+    <t>DAC: Agregamos el metodo SetPrimeryKey()</t>
+  </si>
+  <si>
+    <t>Controlador: Solo comentamos un paso de EstadoList por el ViewBag pero no lo necesitaba; SP Acomodamos en un solo Archivo DAC:Agregamos el metodo SetPrimeryKey()</t>
+  </si>
+  <si>
+    <t>se inserto 12 registro a la tabla Mes</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Doc</t>
+  </si>
+  <si>
+    <t>ejecutamos Sp's de segModulo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +316,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -440,7 +466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -502,12 +528,38 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1204,20 +1256,168 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="B2:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="11.42578125" style="1"/>
-    <col min="9" max="10" width="11.42578125" style="12"/>
-    <col min="11" max="11" width="72.85546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="137.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="9" width="11.42578125" style="1"/>
+    <col min="10" max="11" width="11.42578125" style="12"/>
+    <col min="12" max="12" width="72.85546875" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="C1" s="18" t="s">
@@ -1225,11 +1425,12 @@
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="11"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="11" t="s">
         <v>46</v>
@@ -1241,22 +1442,25 @@
         <v>55</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -1279,100 +1483,121 @@
         <v>51</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="D5" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>50</v>
       </c>
@@ -1397,8 +1622,11 @@
       <c r="I7" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>50</v>
       </c>
@@ -1423,8 +1651,12 @@
       <c r="I8" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="22"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>50</v>
       </c>
@@ -1449,8 +1681,11 @@
       <c r="I9" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>50</v>
       </c>
@@ -1475,8 +1710,11 @@
       <c r="I10" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>50</v>
       </c>
@@ -1501,8 +1739,11 @@
       <c r="I11" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>50</v>
       </c>
@@ -1527,8 +1768,11 @@
       <c r="I12" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>50</v>
       </c>
@@ -1553,8 +1797,11 @@
       <c r="I13" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
@@ -1579,8 +1826,11 @@
       <c r="I14" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
@@ -1605,8 +1855,11 @@
       <c r="I15" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J15" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
@@ -1631,8 +1884,11 @@
       <c r="I16" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
@@ -1657,8 +1913,11 @@
       <c r="I17" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>50</v>
       </c>
@@ -1683,8 +1942,11 @@
       <c r="I18" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>50</v>
       </c>
@@ -1709,8 +1971,11 @@
       <c r="I19" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
@@ -1735,8 +2000,11 @@
       <c r="I20" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
@@ -1761,8 +2029,11 @@
       <c r="I21" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
@@ -1787,8 +2058,11 @@
       <c r="I22" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>50</v>
       </c>
@@ -1813,8 +2087,11 @@
       <c r="I23" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>50</v>
       </c>
@@ -1839,8 +2116,11 @@
       <c r="I24" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
@@ -1865,8 +2145,11 @@
       <c r="I25" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
@@ -1891,8 +2174,11 @@
       <c r="I26" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>50</v>
       </c>
@@ -1917,8 +2203,11 @@
       <c r="I27" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>50</v>
       </c>
@@ -1943,8 +2232,11 @@
       <c r="I28" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>50</v>
       </c>
@@ -1969,8 +2261,11 @@
       <c r="I29" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>50</v>
       </c>
@@ -1993,30 +2288,33 @@
         <v>50</v>
       </c>
       <c r="I30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I2 B1:C1 G1:H1 B2:H1048576 K3">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="J2 B1:C1 H1:I1 L3 B2:I1048576">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Revisar"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:H30 K3">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="L3 B3:I30">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"Carlos"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I30">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="J3:J30">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Revisar"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I30">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="J3:J30">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Carlos"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2029,149 +2327,11 @@
           <x14:formula1>
             <xm:f>Valores!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:I30</xm:sqref>
+          <xm:sqref>B3:J30</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="137.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
